--- a/biology/Botanique/Quercus_boyntonii/Quercus_boyntonii.xlsx
+++ b/biology/Botanique/Quercus_boyntonii/Quercus_boyntonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus boyntonii est une espèce rare de chêne nord-américain. À l'heure actuelle, on ne le trouve qu'en Alabama, bien que des documents historiques indiquent qu'il poussait autrefois aussi au Texas[1]. Il est communément appelé chêne des postes de Boynton[4] ou chêne de Boynton[2].
-Le Quercus boyntonii est une espèce rare et mal connue. C'est un arbuste ou un petit arbre, atteignant parfois une hauteur de 6 mètres mais généralement plus petit. Les feuilles sont vert foncé, glabres et brillantes sur la face supérieure, couvertes de nombreux poils gris sur la face inférieure[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus boyntonii est une espèce rare de chêne nord-américain. À l'heure actuelle, on ne le trouve qu'en Alabama, bien que des documents historiques indiquent qu'il poussait autrefois aussi au Texas. Il est communément appelé chêne des postes de Boynton ou chêne de Boynton.
+Le Quercus boyntonii est une espèce rare et mal connue. C'est un arbuste ou un petit arbre, atteignant parfois une hauteur de 6 mètres mais généralement plus petit. Les feuilles sont vert foncé, glabres et brillantes sur la face supérieure, couvertes de nombreux poils gris sur la face inférieure,.
 </t>
         </is>
       </c>
